--- a/Recruitment_Task/Result.xlsx
+++ b/Recruitment_Task/Result.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -49,142 +49,139 @@
     <x:t>M</x:t>
   </x:si>
   <x:si>
+    <x:t>November</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radiant Starshine-Blazer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jakub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>July</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunbeam Raindrop-Mist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zuzanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>September</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bumblebee Moon-Clover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julia</x:t>
+  </x:si>
+  <x:si>
     <x:t>February</x:t>
   </x:si>
   <x:si>
+    <x:t>Sunbeam Twinkle-Sweet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunbeam Starshine-Blazer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Szymon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>October</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Feather-Wind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delightful Starshine-Blazer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>April</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bumblebee Nimble-Flower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>August</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glimmer Summer-Dancer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Optimistic Raindrop-Mist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aleksander</x:t>
+  </x:si>
+  <x:si>
     <x:t>Radiant Twinkle-Sweet</x:t>
   </x:si>
   <x:si>
-    <x:t>Jakub</x:t>
-  </x:si>
-  <x:si>
-    <x:t>October</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunbeam Feather-Wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zuzanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>September</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bumblebee Moon-Clover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>July</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunbeam Raindrop-Mist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>August</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunbeam Summer-Dancer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Szymon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fancy Feather-Wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maja</x:t>
+    <x:t>Franciszek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>June</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whirlwind Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whirlwind Feather-Wind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mikołaj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wojciech</x:t>
   </x:si>
   <x:si>
     <x:t>May</x:t>
   </x:si>
   <x:si>
-    <x:t>Delightful Snowflake-Dream</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zofia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>April</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bumblebee Nimble-Flower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>November</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glimmer Starshine-Blazer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lena</x:t>
+    <x:t>Brilliant Snowflake-Dream</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alicja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radiant Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria</x:t>
   </x:si>
   <x:si>
     <x:t>January</x:t>
   </x:si>
   <x:si>
-    <x:t>Optimistic Crystal-Dazzler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aleksander</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radiant Feather-Wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Franciszek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>March</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind Glitter-Blossom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>June</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind Cloud-Jumper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mikołaj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delightful Raindrop-Mist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wojciech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brilliant Crystal-Dazzler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alicja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delightful Starshine-Blazer</x:t>
+    <x:t>Delightful Crystal-Dazzler</x:t>
   </x:si>
   <x:si>
     <x:t>Kacper</x:t>
   </x:si>
   <x:si>
-    <x:t>Emerald Moon-Clover</x:t>
+    <x:t>Emerald Crystal-Dazzler</x:t>
   </x:si>
   <x:si>
     <x:t>Amelia</x:t>
@@ -193,7 +190,7 @@
     <x:t>Oliwia</x:t>
   </x:si>
   <x:si>
-    <x:t>Breezy Cloud-Jumper</x:t>
+    <x:t>Breezy Crystal-Dazzler</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -689,15 +686,15 @@
         <x:v>8457</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E6" s="6" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="E6" s="6" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
         <x:v>6</x:v>
@@ -706,7 +703,7 @@
         <x:v>8234</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
         <x:v>23</x:v>
@@ -723,15 +720,15 @@
         <x:v>8033</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A9" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
         <x:v>13</x:v>
@@ -740,15 +737,15 @@
         <x:v>7928</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
         <x:v>13</x:v>
@@ -757,15 +754,15 @@
         <x:v>7723</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A11" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
         <x:v>13</x:v>
@@ -774,15 +771,15 @@
         <x:v>7650</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
         <x:v>6</x:v>
@@ -791,15 +788,15 @@
         <x:v>7324</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A13" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
         <x:v>6</x:v>
@@ -808,15 +805,15 @@
         <x:v>7094</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
         <x:v>6</x:v>
@@ -825,16 +822,16 @@
         <x:v>6407</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F14" s="4" t="s"/>
     </x:row>
     <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A15" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
         <x:v>6</x:v>
@@ -843,16 +840,16 @@
         <x:v>6008</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A16" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
         <x:v>6</x:v>
@@ -861,16 +858,16 @@
         <x:v>5862</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s"/>
     </x:row>
     <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A17" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
         <x:v>13</x:v>
@@ -879,16 +876,16 @@
         <x:v>5759</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F17" s="4" t="s"/>
     </x:row>
     <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A18" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s">
         <x:v>13</x:v>
@@ -897,16 +894,16 @@
         <x:v>5442</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s"/>
     </x:row>
     <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A19" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
         <x:v>6</x:v>
@@ -915,16 +912,16 @@
         <x:v>5437</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s"/>
     </x:row>
     <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A20" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
         <x:v>13</x:v>
@@ -933,16 +930,16 @@
         <x:v>5310</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F20" s="4" t="s"/>
     </x:row>
     <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A21" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
         <x:v>13</x:v>
@@ -951,10 +948,10 @@
         <x:v>5058</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F21" s="4" t="s"/>
     </x:row>

--- a/Recruitment_Task/Result.xlsx
+++ b/Recruitment_Task/Result.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -49,13 +49,40 @@
     <x:t>M</x:t>
   </x:si>
   <x:si>
+    <x:t>February</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radiant Twinkle-Sweet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jakub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>June</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunbeam Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zuzanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bumblebee Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julia</x:t>
+  </x:si>
+  <x:si>
     <x:t>November</x:t>
   </x:si>
   <x:si>
-    <x:t>Radiant Starshine-Blazer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jakub</x:t>
+    <x:t>Sunbeam Starshine-Blazer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan</x:t>
   </x:si>
   <x:si>
     <x:t>July</x:t>
@@ -64,133 +91,109 @@
     <x:t>Sunbeam Raindrop-Mist</x:t>
   </x:si>
   <x:si>
-    <x:t>Zuzanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
+    <x:t>Szymon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fancy Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>October</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delightful Feather-Wind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bumblebee Feather-Wind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glimmer Snowflake-Dream</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Optimistic Twinkle-Sweet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aleksander</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radiant Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Franciszek</x:t>
   </x:si>
   <x:si>
     <x:t>September</x:t>
   </x:si>
   <x:si>
-    <x:t>Bumblebee Moon-Clover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>February</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunbeam Twinkle-Sweet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunbeam Starshine-Blazer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Szymon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>October</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fancy Feather-Wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delightful Starshine-Blazer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zofia</x:t>
+    <x:t>Whirlwind Moon-Clover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whirlwind Snowflake-Dream</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mikołaj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delightful Moon-Clover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wojciech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brilliant Moon-Clover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alicja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radiant Moon-Clover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>March</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delightful Glitter-Blossom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kacper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald Cloud-Jumper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amelia</x:t>
   </x:si>
   <x:si>
     <x:t>April</x:t>
   </x:si>
   <x:si>
-    <x:t>Bumblebee Nimble-Flower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>August</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glimmer Summer-Dancer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optimistic Raindrop-Mist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aleksander</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radiant Twinkle-Sweet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Franciszek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>June</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind Cloud-Jumper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind Feather-Wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mikołaj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wojciech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brilliant Snowflake-Dream</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alicja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radiant Cloud-Jumper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>January</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delightful Crystal-Dazzler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kacper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emerald Crystal-Dazzler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amelia</x:t>
+    <x:t>Radiant Nimble-Flower</x:t>
   </x:si>
   <x:si>
     <x:t>Oliwia</x:t>
   </x:si>
   <x:si>
-    <x:t>Breezy Crystal-Dazzler</x:t>
+    <x:t>Breezy Moon-Clover</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -652,15 +655,15 @@
         <x:v>8866</x:v>
       </x:c>
       <x:c r="D4" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="6" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="6" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A5" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
         <x:v>13</x:v>
@@ -669,15 +672,15 @@
         <x:v>8468</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A6" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
         <x:v>6</x:v>
@@ -686,7 +689,7 @@
         <x:v>8457</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
         <x:v>20</x:v>
@@ -703,15 +706,15 @@
         <x:v>8234</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="6" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A8" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
         <x:v>13</x:v>
@@ -720,7 +723,7 @@
         <x:v>8033</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>25</x:v>
@@ -737,15 +740,15 @@
         <x:v>7928</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
         <x:v>13</x:v>
@@ -754,15 +757,15 @@
         <x:v>7723</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A11" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
         <x:v>13</x:v>
@@ -771,15 +774,15 @@
         <x:v>7650</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
         <x:v>6</x:v>
@@ -788,15 +791,15 @@
         <x:v>7324</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A13" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
         <x:v>6</x:v>
@@ -805,15 +808,15 @@
         <x:v>7094</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="E13" s="6" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
         <x:v>6</x:v>
@@ -822,16 +825,16 @@
         <x:v>6407</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F14" s="4" t="s"/>
     </x:row>
     <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A15" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
         <x:v>6</x:v>
@@ -840,10 +843,10 @@
         <x:v>6008</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F15" s="4" t="s"/>
     </x:row>
@@ -858,16 +861,16 @@
         <x:v>5862</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s"/>
     </x:row>
     <x:row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A17" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
         <x:v>13</x:v>
@@ -876,16 +879,16 @@
         <x:v>5759</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F17" s="4" t="s"/>
     </x:row>
     <x:row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A18" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s">
         <x:v>13</x:v>
@@ -894,16 +897,16 @@
         <x:v>5442</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="E18" s="6" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s"/>
     </x:row>
     <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A19" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
         <x:v>6</x:v>
@@ -912,16 +915,16 @@
         <x:v>5437</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s"/>
     </x:row>
     <x:row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A20" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
         <x:v>13</x:v>
@@ -930,16 +933,16 @@
         <x:v>5310</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F20" s="4" t="s"/>
     </x:row>
     <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A21" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
         <x:v>13</x:v>
@@ -948,10 +951,10 @@
         <x:v>5058</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F21" s="4" t="s"/>
     </x:row>
